--- a/Documetacion.xlsx
+++ b/Documetacion.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F465190F-62E3-40F7-B62B-CACB64CCA8CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F749661-A37C-41DD-8E10-43F3CA2CA593}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comandos" sheetId="1" r:id="rId1"/>
     <sheet name="EtapaAnalisisDatos" sheetId="2" r:id="rId2"/>
+    <sheet name="ModelosPredictivos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Actualizar Pip</t>
   </si>
@@ -29,10 +30,89 @@
     <t>Instalar un paquete</t>
   </si>
   <si>
-    <t>pip install --upgrade PIP</t>
-  </si>
-  <si>
     <t>pip install nombre_del_paquete</t>
+  </si>
+  <si>
+    <t>Librería a Utilizar</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Librería que nos facilita el poder leer un Data Set Malé (conjunto de datos). Ejem  Python utiliza el Data Frame.
+Calcular estadísticos básicos </t>
+  </si>
+  <si>
+    <t>NumPy</t>
+  </si>
+  <si>
+    <t>es el equivalente de MATLAB para realziar calcilos matematicos, simulaciones, matreices, etc</t>
+  </si>
+  <si>
+    <t>matplotlib</t>
+  </si>
+  <si>
+    <t>representaciones gráficas dibujos por así decir de alta calidad en 2D.</t>
+  </si>
+  <si>
+    <t>IPython</t>
+  </si>
+  <si>
+    <t>Entorno grafico para python</t>
+  </si>
+  <si>
+    <t>scikit-learn</t>
+  </si>
+  <si>
+    <t>Es la librería que se utiliza para hacer análisis predictivo o modelos predictivos en Payton</t>
+  </si>
+  <si>
+    <t>pip install --upgrade pip</t>
+  </si>
+  <si>
+    <t>Importar un paquete desde pythn</t>
+  </si>
+  <si>
+    <t>python -c "nombre del paquete"</t>
+  </si>
+  <si>
+    <t>Análisis retrospectivo</t>
+  </si>
+  <si>
+    <t>Análisis predictivo</t>
+  </si>
+  <si>
+    <t>Básicamente dos tipos de análisis que uno puede hacer en base a los datos</t>
+  </si>
+  <si>
+    <t>Analizar la historia a descubrir algunos momentos clave o puntuales del dato para luego tomar una decisión</t>
+  </si>
+  <si>
+    <t>Se basa el análisis retrospectivo para permitir en pocas palabras el futuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algoritmos supervisados </t>
+  </si>
+  <si>
+    <t>Son una serie de algoritmos donde los datos históricos tienen un valor de salida ademas de los datos de partida.</t>
+  </si>
+  <si>
+    <t>Estos algoritmos trabajan sin una variable de salida procedente de los datos históricos de modo que no necesito tener un dato histórico para generar mi propio modelo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algoritmos No supervisados </t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
+  </si>
+  <si>
+    <t>Regresion Lineal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intenta obtener un modelo lineal a partir del Data Set y encontrar una ecuación </t>
+  </si>
+  <si>
+    <t>Regresion Logistica</t>
   </si>
 </sst>
 </file>
@@ -48,12 +128,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,8 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,10 +187,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>103428</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>189595</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>62690</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -124,7 +214,188 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10771428" cy="7238095"/>
+          <a:ext cx="7682690" cy="5162550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>599306</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B34CDF-08CB-47C7-A90C-DAB389FD0E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1143000"/>
+          <a:ext cx="6152381" cy="3438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>56383</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>37667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66456695-1C63-44CF-8BAD-BD7ED12289E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="1143000"/>
+          <a:ext cx="6133333" cy="3466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>580258</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C08C9F-7F0E-44A2-921C-3847B632165D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5524500"/>
+          <a:ext cx="6133333" cy="3409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46857</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>18619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46E61E2-0261-4C44-8CBB-BB41690B1129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="5524500"/>
+          <a:ext cx="6142857" cy="3447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -399,36 +670,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:A7"/>
+  <dimension ref="A3:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -436,11 +761,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86AE36E-F930-4F82-9CEF-6FB2FF136916}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DF16B2-4727-443F-906A-B1E84C068F3F}">
+  <dimension ref="A2:I51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documetacion.xlsx
+++ b/Documetacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F749661-A37C-41DD-8E10-43F3CA2CA593}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Comandos" sheetId="1" r:id="rId1"/>
     <sheet name="EtapaAnalisisDatos" sheetId="2" r:id="rId2"/>
     <sheet name="ModelosPredictivos" sheetId="3" r:id="rId3"/>
+    <sheet name="DataScientist" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Actualizar Pip</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Importar un paquete desde pythn</t>
   </si>
   <si>
-    <t>python -c "nombre del paquete"</t>
-  </si>
-  <si>
     <t>Análisis retrospectivo</t>
   </si>
   <si>
@@ -113,12 +110,18 @@
   </si>
   <si>
     <t>Regresion Logistica</t>
+  </si>
+  <si>
+    <t>python -c " import nombre del paquete"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los modelos predictivos  sigue un principio básico de la estadística que es la regla de Paret,las cosas importantes de la vida se dividen siempre en la regla del 80 20.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,6 +410,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>627809</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4AA65EF-D8F2-4FF2-AD9C-F7233B079A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="6723809" cy="3800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>18286</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B58832-CBAE-41B4-8EDE-49122D61BAA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="190500"/>
+          <a:ext cx="6114286" cy="3438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>46857</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>56714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC440C46-6477-4461-8041-48CE94CE567C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="4381500"/>
+          <a:ext cx="6142857" cy="3485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -669,11 +809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86AE36E-F930-4F82-9CEF-6FB2FF136916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
@@ -771,10 +911,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DF16B2-4727-443F-906A-B1E84C068F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
@@ -785,57 +925,78 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
         <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s">
         <v>27</v>
-      </c>
-      <c r="I50" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
